--- a/Results/Sentiment Analysis-1/Multi-period Analysis Financial.xlsx
+++ b/Results/Sentiment Analysis-1/Multi-period Analysis Financial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="705" windowWidth="27315" windowHeight="12015"/>
+    <workbookView xWindow="960" yWindow="705" windowWidth="27315" windowHeight="12015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AAPL" sheetId="1" r:id="rId1"/>
@@ -1039,8 +1039,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527766656"/>
-        <c:axId val="527768192"/>
+        <c:axId val="410747648"/>
+        <c:axId val="410749184"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1331,11 +1331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="530839040"/>
-        <c:axId val="527825536"/>
+        <c:axId val="410773760"/>
+        <c:axId val="410771840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="527766656"/>
+        <c:axId val="410747648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,12 +1345,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="527768192"/>
+        <c:crossAx val="410749184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527768192"/>
+        <c:axId val="410749184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -1363,12 +1363,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527766656"/>
+        <c:crossAx val="410747648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527825536"/>
+        <c:axId val="410771840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,12 +1378,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530839040"/>
+        <c:crossAx val="410773760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530839040"/>
+        <c:axId val="410773760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527825536"/>
+        <c:crossAx val="410771840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1527,37 +1527,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-0.12492698383748962</c:v>
+                  <c:v>-0.1097257037129503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.26654859335994135</c:v>
+                  <c:v>-0.29599256660206996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4738644352717757E-2</c:v>
+                  <c:v>4.5344106309264123E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.53343495852090039</c:v>
+                  <c:v>-0.62378735033789035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.16271699152920574</c:v>
+                  <c:v>-0.16646579099707876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15866231830327088</c:v>
+                  <c:v>3.7728075004977234E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.18295429841194552</c:v>
+                  <c:v>-0.24104657837081556</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.6930753378416815E-2</c:v>
+                  <c:v>-9.1910129628304582E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5111308006402117E-2</c:v>
+                  <c:v>0.11975223833785427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11142553112217925</c:v>
+                  <c:v>1.5579760866725514E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.920975261146385E-2</c:v>
+                  <c:v>-1.3335799255889427E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,11 +1572,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="270391936"/>
-        <c:axId val="270393728"/>
+        <c:axId val="288321536"/>
+        <c:axId val="288323072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="270391936"/>
+        <c:axId val="288321536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,7 +1585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="270393728"/>
+        <c:crossAx val="288323072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1593,7 +1593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270393728"/>
+        <c:axId val="288323072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1625,7 +1625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270391936"/>
+        <c:crossAx val="288321536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1889,187 +1889,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>-2.7168006955000001E-2</c:v>
+                  <c:v>-3.3167495854099999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-27.587258698700001</c:v>
+                  <c:v>-7.7667219458300005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.67083242773</c:v>
+                  <c:v>-2.2664455500299999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.27785461658499999</c:v>
+                  <c:v>-4.9751243781099999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.4113730216800002</c:v>
+                  <c:v>-2.3217247097800001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-17.0769447353</c:v>
+                  <c:v>-5.22388059701E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.6136281309099996</c:v>
+                  <c:v>-1.8794914317300002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-35.872060092300003</c:v>
+                  <c:v>-8.01547816473E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.8419513544499999</c:v>
+                  <c:v>-3.3167495854099997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.0867202782000001</c:v>
+                  <c:v>-1.82421227197E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.2327162079399998</c:v>
+                  <c:v>-2.6533996683300001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.9480053743300001</c:v>
+                  <c:v>-1.2714206744100001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-46.426007521400003</c:v>
+                  <c:v>-5.8595909342199999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-121.471246369</c:v>
+                  <c:v>-0.13294637921499999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-50.206476852900003</c:v>
+                  <c:v>-6.9651741293500005E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-22.920124413</c:v>
+                  <c:v>-5.3344389165300002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.3117504099900001</c:v>
+                  <c:v>-2.6533996683300001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.771818379404</c:v>
+                  <c:v>-8.2918739635199998E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-18.322350872299999</c:v>
+                  <c:v>-6.1359867329999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-32.246777709699998</c:v>
+                  <c:v>-7.2415699281400001E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-10.040430934</c:v>
+                  <c:v>-4.4499723604200001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.74918495979</c:v>
+                  <c:v>1.45936981758E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5.7258632839999999</c:v>
+                  <c:v>-1.4372581536799999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.24883424552</c:v>
+                  <c:v>3.59314538419E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.78787220169500005</c:v>
+                  <c:v>-1.21614151465E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-37.577058346999998</c:v>
+                  <c:v>-4.4776119402999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-21.2272694342</c:v>
+                  <c:v>-4.8645660585999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-21.455316037999999</c:v>
+                  <c:v>-4.0353786622400002E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-16.877095229599998</c:v>
+                  <c:v>-4.5328911000599999E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.13975058123100001</c:v>
+                  <c:v>-1.9347705914899999E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-103.314579176</c:v>
+                  <c:v>-5.5831951354299997E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-52.147754440699998</c:v>
+                  <c:v>-3.8142620232199997E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-23.564541305199999</c:v>
+                  <c:v>-2.4046434494199999E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-98.980458793500006</c:v>
+                  <c:v>-0.128800442233</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-25.871352077600001</c:v>
+                  <c:v>-4.1459369817599998E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.4558231741499998</c:v>
+                  <c:v>2.1006080707599999E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.19209921427</c:v>
+                  <c:v>-8.84466556108E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-26.424591492000001</c:v>
+                  <c:v>-2.1558872305100001E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-167.657887284</c:v>
+                  <c:v>-0.16362631288000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-257.47243682200002</c:v>
+                  <c:v>-0.19071310116099999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-141.59018461100001</c:v>
+                  <c:v>-0.11304588170300001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.22804660383399999</c:v>
+                  <c:v>1.1055831951399999E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.86443658493200004</c:v>
+                  <c:v>-6.63349917081E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.6797534132899998</c:v>
+                  <c:v>-2.3217247097800001E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-35.7588600634</c:v>
+                  <c:v>-6.57822001106E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-31.644141919100001</c:v>
+                  <c:v>-7.3521282476499999E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-40.660627136400002</c:v>
+                  <c:v>-9.01050304035E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-329.18181488900001</c:v>
+                  <c:v>-0.36777224986200002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-82.629640789600003</c:v>
+                  <c:v>-0.13515754560500001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.470912120554</c:v>
+                  <c:v>6.08070757324E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-36.064294323399999</c:v>
+                  <c:v>-8.1260364842500002E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-40.059637891599998</c:v>
+                  <c:v>-6.8269762299599995E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-36.669564587399996</c:v>
+                  <c:v>-8.4466556108300006E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-17.2105207695</c:v>
+                  <c:v>-4.0906578220000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-59.770603228500001</c:v>
+                  <c:v>-9.9834162520700001E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-7.3337153319799997</c:v>
+                  <c:v>-3.7589828634600003E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-2.9160327465</c:v>
+                  <c:v>-1.54781647319E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-6.6685107980499994E-2</c:v>
+                  <c:v>-2.4875621890500001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,8 +2084,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272613376"/>
-        <c:axId val="272614912"/>
+        <c:axId val="288379648"/>
+        <c:axId val="288381184"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2370,11 +2370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272626432"/>
-        <c:axId val="272616448"/>
+        <c:axId val="288388608"/>
+        <c:axId val="288387072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="272613376"/>
+        <c:axId val="288379648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2384,16 +2384,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="272614912"/>
+        <c:crossAx val="288381184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272614912"/>
+        <c:axId val="288381184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="350"/>
-          <c:min val="-350"/>
+          <c:max val="0.4"/>
+          <c:min val="-0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2402,14 +2402,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="272613376"/>
+        <c:crossAx val="288379648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272616448"/>
+        <c:axId val="288387072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8.0000000000000016E-2"/>
+          <c:min val="-8.0000000000000016E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2417,12 +2419,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="272626432"/>
+        <c:crossAx val="288388608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272626432"/>
+        <c:axId val="288388608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="272616448"/>
+        <c:crossAx val="288387072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2566,37 +2568,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5.5470698038436017E-2</c:v>
+                  <c:v>1.7906673220642922E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22708324555693235</c:v>
+                  <c:v>0.24448155364087168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2346209460958434E-2</c:v>
+                  <c:v>5.0508447237111648E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3453415242421344E-2</c:v>
+                  <c:v>-1.7835652902238545E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7838584921819064E-2</c:v>
+                  <c:v>0.10254884069357821</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1614274545916761</c:v>
+                  <c:v>0.25194120601083059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5527161045223146E-2</c:v>
+                  <c:v>3.0915924691121255E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.7958255222223738E-2</c:v>
+                  <c:v>-5.1450942062753378E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.2385541993252681E-2</c:v>
+                  <c:v>-0.10193124737919111</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.538293001706605E-2</c:v>
+                  <c:v>-1.1446187414628859E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33412489119698652</c:v>
+                  <c:v>0.35131906632178356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,11 +2613,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="275022976"/>
-        <c:axId val="275024512"/>
+        <c:axId val="288397184"/>
+        <c:axId val="288398720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="275022976"/>
+        <c:axId val="288397184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,7 +2626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="275024512"/>
+        <c:crossAx val="288398720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2632,7 +2634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="275024512"/>
+        <c:axId val="288398720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2664,7 +2666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="275022976"/>
+        <c:crossAx val="288397184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2833,11 +2835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="535318528"/>
-        <c:axId val="535321216"/>
+        <c:axId val="427134336"/>
+        <c:axId val="429041920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="535318528"/>
+        <c:axId val="427134336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,7 +2848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="535321216"/>
+        <c:crossAx val="429041920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2854,7 +2856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="535321216"/>
+        <c:axId val="429041920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2886,7 +2888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535318528"/>
+        <c:crossAx val="427134336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3345,8 +3347,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527238272"/>
-        <c:axId val="527239808"/>
+        <c:axId val="429673088"/>
+        <c:axId val="432349952"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3625,11 +3627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527243136"/>
-        <c:axId val="527241600"/>
+        <c:axId val="532542592"/>
+        <c:axId val="432351488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="527238272"/>
+        <c:axId val="429673088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3639,12 +3641,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="527239808"/>
+        <c:crossAx val="432349952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527239808"/>
+        <c:axId val="432349952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -3657,12 +3659,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527238272"/>
+        <c:crossAx val="429673088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527241600"/>
+        <c:axId val="432351488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,12 +3674,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527243136"/>
+        <c:crossAx val="532542592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527243136"/>
+        <c:axId val="532542592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3687,7 +3689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527241600"/>
+        <c:crossAx val="432351488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3866,11 +3868,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527252096"/>
-        <c:axId val="527266176"/>
+        <c:axId val="557865600"/>
+        <c:axId val="557945984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="527252096"/>
+        <c:axId val="557865600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3879,7 +3881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="527266176"/>
+        <c:crossAx val="557945984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3887,7 +3889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527266176"/>
+        <c:axId val="557945984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3919,7 +3921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527252096"/>
+        <c:crossAx val="557865600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4378,8 +4380,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527294464"/>
-        <c:axId val="527296000"/>
+        <c:axId val="219557888"/>
+        <c:axId val="219559424"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4664,11 +4666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="527725312"/>
-        <c:axId val="527297536"/>
+        <c:axId val="219566848"/>
+        <c:axId val="219560960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="527294464"/>
+        <c:axId val="219557888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4678,12 +4680,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="527296000"/>
+        <c:crossAx val="219559424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527296000"/>
+        <c:axId val="219559424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -4696,12 +4698,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527294464"/>
+        <c:crossAx val="219557888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527297536"/>
+        <c:axId val="219560960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4711,12 +4713,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527725312"/>
+        <c:crossAx val="219566848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527725312"/>
+        <c:axId val="219566848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4726,7 +4728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527297536"/>
+        <c:crossAx val="219560960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4905,11 +4907,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527795712"/>
-        <c:axId val="527797248"/>
+        <c:axId val="219583616"/>
+        <c:axId val="219585152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="527795712"/>
+        <c:axId val="219583616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4918,7 +4920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="527797248"/>
+        <c:crossAx val="219585152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4926,7 +4928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527797248"/>
+        <c:axId val="219585152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4958,7 +4960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527795712"/>
+        <c:crossAx val="219583616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5222,187 +5224,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>7.7963723140600003E-2</c:v>
+                  <c:v>4.5558086560399998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8459583718900001</c:v>
+                  <c:v>4.9354593773700004E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.724882969700001</c:v>
+                  <c:v>4.10022779043E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.79147076869</c:v>
+                  <c:v>1.5945330296099999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21355280686399999</c:v>
+                  <c:v>2.2779043280199999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9726381229000003</c:v>
+                  <c:v>1.8223234624099999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.57060406066699998</c:v>
+                  <c:v>-1.5186028853500001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.8251849943599998</c:v>
+                  <c:v>-2.0501138952200001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-22.4942289896</c:v>
+                  <c:v>-5.46697038724E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7823094662600001</c:v>
+                  <c:v>1.74639331815E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.29365431789E-2</c:v>
+                  <c:v>7.5930144267300002E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.281347348725</c:v>
+                  <c:v>-4.5558086560399998E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.85584507591</c:v>
+                  <c:v>-1.13895216401E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.1525072116399999</c:v>
+                  <c:v>-4.5558086560399998E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.571719280899998</c:v>
+                  <c:v>3.7205770690999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.9558420251599999</c:v>
+                  <c:v>-9.1116173120700007E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.4861512699600006</c:v>
+                  <c:v>2.2019741837499999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.0677640343200001</c:v>
+                  <c:v>-1.13895216401E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.30846516547000002</c:v>
+                  <c:v>4.5558086560399998E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4581170969900001</c:v>
+                  <c:v>7.2133637053900003E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.682984812899999</c:v>
+                  <c:v>2.6575550493500001E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-15.542463676200001</c:v>
+                  <c:v>-3.11313591496E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-16.289051068500001</c:v>
+                  <c:v>-3.6066818527E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-54.070666770599999</c:v>
+                  <c:v>-0.10782080485999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.30165520374</c:v>
+                  <c:v>-1.2148823082800001E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.66438651024200002</c:v>
+                  <c:v>6.0744115413799999E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4.7591768386700002</c:v>
+                  <c:v>-1.0250569476100001E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.2702629411</c:v>
+                  <c:v>3.5687167805600002E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41.219081451800001</c:v>
+                  <c:v>7.2892938496600002E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.6664327754999997</c:v>
+                  <c:v>1.74639331815E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6.0862549956100001</c:v>
+                  <c:v>-1.44267274108E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.8219478049800002</c:v>
+                  <c:v>3.4168564920300001E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.7457094529299999</c:v>
+                  <c:v>2.2779043280200001E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.6580499804000004</c:v>
+                  <c:v>1.29081245254E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-7.0952637603099999</c:v>
+                  <c:v>-1.44267274108E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-35.473494029000001</c:v>
+                  <c:v>-5.9225512528500002E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-50.930649573399997</c:v>
+                  <c:v>-0.113895216401</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-22.6953527971</c:v>
+                  <c:v>-6.3022019741799995E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.6813046381600001</c:v>
+                  <c:v>1.8223234624099999E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.246320168763</c:v>
+                  <c:v>-3.03720577069E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-18.346897891299999</c:v>
+                  <c:v>-5.6947608200500002E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-61.551511987799998</c:v>
+                  <c:v>-0.105922551253</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-23.579789091199999</c:v>
+                  <c:v>-6.6438876233900004E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-10.390643449300001</c:v>
+                  <c:v>-2.88534548216E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-3.0355006118499999</c:v>
+                  <c:v>-2.0501138952200001E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.415241568901</c:v>
+                  <c:v>-5.3151100987099999E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.16609662756099999</c:v>
+                  <c:v>2.2779043280199999E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-7.6088074149200002</c:v>
+                  <c:v>-2.12604403948E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.3896355704400003</c:v>
+                  <c:v>1.9741837509499999E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-17.5327984344</c:v>
+                  <c:v>-4.4798785117700003E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-22.670494798499998</c:v>
+                  <c:v>-4.85952923311E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-11.9792955469</c:v>
+                  <c:v>-2.73348519362E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.7236762268300001</c:v>
+                  <c:v>-2.0501138952200001E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.6287333606800001</c:v>
+                  <c:v>2.50569476082E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-18.685870600600001</c:v>
+                  <c:v>-4.7835990888400001E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-5.72411915117</c:v>
+                  <c:v>-1.29081245254E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-11.965736638499999</c:v>
+                  <c:v>-2.2779043280200001E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-4.4693551722200002</c:v>
+                  <c:v>-1.0250569476100001E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-68.973601935299996</c:v>
+                  <c:v>-0.123766135156</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5332865550999999</c:v>
+                  <c:v>1.74639331815E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.17626580884000001</c:v>
+                  <c:v>2.2779043280199999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5417,8 +5419,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526925184"/>
-        <c:axId val="274924672"/>
+        <c:axId val="287790976"/>
+        <c:axId val="287792512"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -5709,11 +5711,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="274928000"/>
-        <c:axId val="274926208"/>
+        <c:axId val="287795840"/>
+        <c:axId val="287794304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526925184"/>
+        <c:axId val="287790976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5723,16 +5725,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="274924672"/>
+        <c:crossAx val="287792512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="274924672"/>
+        <c:axId val="287792512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
-          <c:min val="-80"/>
+          <c:max val="0.15000000000000002"/>
+          <c:min val="-0.15000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5741,14 +5743,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526925184"/>
+        <c:crossAx val="287790976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="274926208"/>
+        <c:axId val="287794304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3.0000000000000006E-2"/>
+          <c:min val="-3.0000000000000006E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -5756,12 +5760,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274928000"/>
+        <c:crossAx val="287795840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="274928000"/>
+        <c:axId val="287795840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5771,7 +5775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274926208"/>
+        <c:crossAx val="287794304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5900,37 +5904,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.21086218561696107</c:v>
+                  <c:v>0.14770409246126001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7522958963077829E-2</c:v>
+                  <c:v>4.4063887759196202E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5222307644470346E-2</c:v>
+                  <c:v>7.5719516621644709E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.1650153897618537</c:v>
+                  <c:v>-0.14654044113676734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6216795742838442E-2</c:v>
+                  <c:v>8.1607039636787282E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29121392963597942</c:v>
+                  <c:v>0.25368156520212648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32282314562611325</c:v>
+                  <c:v>0.34312421713228525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7583830642852284E-2</c:v>
+                  <c:v>-6.0389568051254601E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.62429154755233E-2</c:v>
+                  <c:v>0.1316599019069993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.32541409939986E-2</c:v>
+                  <c:v>-6.4081356247244481E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3781135660078227E-2</c:v>
+                  <c:v>0.11576128592427447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5945,11 +5949,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="274948864"/>
-        <c:axId val="274950400"/>
+        <c:axId val="287804032"/>
+        <c:axId val="287805824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="274948864"/>
+        <c:axId val="287804032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,7 +5962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="274950400"/>
+        <c:crossAx val="287805824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5966,7 +5970,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274950400"/>
+        <c:axId val="287805824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5998,7 +6002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="274948864"/>
+        <c:crossAx val="287804032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6262,187 +6266,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>5.5435591761700001E-2</c:v>
+                  <c:v>3.5460992907799999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.06911498398</c:v>
+                  <c:v>1.7730496453899999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19006488603999999</c:v>
+                  <c:v>3.5460992907799999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0068423359000001</c:v>
+                  <c:v>2.1867612293100001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.80073632544700002</c:v>
+                  <c:v>-2.36406619385E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.9784065171100007</c:v>
+                  <c:v>-3.30969267139E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.75386245286</c:v>
+                  <c:v>1.5366430259999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.810663695999999</c:v>
+                  <c:v>4.60992907801E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3462929427899999</c:v>
+                  <c:v>1.7730496453899999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.28333746900399998</c:v>
+                  <c:v>-4.1371158392399998E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.5435591761699996</c:v>
+                  <c:v>-2.36406619385E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.7617008695499998</c:v>
+                  <c:v>-1.7730496453899999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.747546315099999</c:v>
+                  <c:v>3.9007092198599998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-25.746752618199999</c:v>
+                  <c:v>-8.9834515366399997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1924670950199996</c:v>
+                  <c:v>2.4822695035500001E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3858897940399999</c:v>
+                  <c:v>2.4822695035500001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.80777576567099996</c:v>
+                  <c:v>2.1276595744699998E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.87641030785200003</c:v>
+                  <c:v>-4.7281323877099999E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-25.3895010269</c:v>
+                  <c:v>-4.9645390070899999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.8062587663</c:v>
+                  <c:v>-2.06855791962E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.8423358974499999</c:v>
+                  <c:v>-3.1914893616999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-20.426695669200001</c:v>
+                  <c:v>-8.6288416075699995E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.96088359053700001</c:v>
+                  <c:v>1.6548463356999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.47516221510099999</c:v>
+                  <c:v>7.0921985815599999E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-20.3985379083</c:v>
+                  <c:v>-7.9196217494099996E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-7.3773333544500002</c:v>
+                  <c:v>-1.89125295508E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-16.246148106300002</c:v>
+                  <c:v>-4.3735224586299998E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-15.6486756173</c:v>
+                  <c:v>-6.7375886524800005E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.4859642361200001</c:v>
+                  <c:v>3.1914893616999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.41708683325500001</c:v>
+                  <c:v>7.0921985815599999E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.388049142332</c:v>
+                  <c:v>-8.2742316784900002E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.70482395239899998</c:v>
+                  <c:v>3.5460992907799999E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.65250859252</c:v>
+                  <c:v>-7.0921985815599999E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.6861131203</c:v>
+                  <c:v>5.7919621749399998E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-7.7293053656400001</c:v>
+                  <c:v>-2.83687943262E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.7653015432199997</c:v>
+                  <c:v>2.83687943262E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.62914996999399997</c:v>
+                  <c:v>1.3002364066199999E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.268378658529</c:v>
+                  <c:v>5.9101654846300004E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.63090983005000001</c:v>
+                  <c:v>3.5460992907799999E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0194394141799998</c:v>
+                  <c:v>8.8652482269499996E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-16.203031534899999</c:v>
+                  <c:v>-7.8014184397199995E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-8.3417366650999991</c:v>
+                  <c:v>-3.5460992907799999E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-1.0347977128900001</c:v>
+                  <c:v>-1.41843971631E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.57811402837199999</c:v>
+                  <c:v>-1.0638297872299999E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.45404389442999998</c:v>
+                  <c:v>-7.0921985815599999E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-18.816423717999999</c:v>
+                  <c:v>-7.8014184397199995E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-12.438690875300001</c:v>
+                  <c:v>-3.6643026004699999E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.9280076448300001</c:v>
+                  <c:v>1.0638297872299999E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-6.36189410218</c:v>
+                  <c:v>-1.7730496453899999E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-12.594966448299999</c:v>
+                  <c:v>-6.7139479905400007E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.20590362654399999</c:v>
+                  <c:v>3.5460992907799999E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.77393893638</c:v>
+                  <c:v>2.83687943262E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-13.762105637399999</c:v>
+                  <c:v>-4.7281323877099997E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-13.2403071308</c:v>
+                  <c:v>-4.8463356973999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-27.9395382479</c:v>
+                  <c:v>-0.115839243499</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.9006488604</c:v>
+                  <c:v>-5.3191489361700001E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>29.547170409</c:v>
+                  <c:v>4.8463356973999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.78401765491599995</c:v>
+                  <c:v>1.0638297872299999E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.48452291074</c:v>
+                  <c:v>4.2553191489399997E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.0435970131700001</c:v>
+                  <c:v>-2.36406619385E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-9.7672233104E-2</c:v>
+                  <c:v>-3.5460992907799999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6457,8 +6461,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="270350208"/>
-        <c:axId val="270351744"/>
+        <c:axId val="287824512"/>
+        <c:axId val="287826304"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6737,11 +6741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="270367360"/>
-        <c:axId val="270365824"/>
+        <c:axId val="287829376"/>
+        <c:axId val="287827840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="270350208"/>
+        <c:axId val="287824512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6751,14 +6755,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="270351744"/>
+        <c:crossAx val="287826304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270351744"/>
+        <c:axId val="287826304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="8.0000000000000016E-2"/>
+          <c:min val="-8.0000000000000016E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6767,14 +6773,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270350208"/>
+        <c:crossAx val="287824512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270365824"/>
+        <c:axId val="287827840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000004E-2"/>
+          <c:min val="-2.0000000000000004E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -6782,12 +6790,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270367360"/>
+        <c:crossAx val="287829376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270367360"/>
+        <c:axId val="287829376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6797,7 +6805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270365824"/>
+        <c:crossAx val="287827840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7520,8 +7528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11051,8 +11059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11085,7 +11093,7 @@
         <v>42795</v>
       </c>
       <c r="B2">
-        <v>7.7963723140600003E-2</v>
+        <v>4.5558086560399998E-3</v>
       </c>
       <c r="D2" s="1">
         <v>42795</v>
@@ -11095,7 +11103,7 @@
       </c>
       <c r="G2">
         <f>VLOOKUP(D2,$A:$B,2,FALSE)</f>
-        <v>7.7963723140600003E-2</v>
+        <v>4.5558086560399998E-3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>5</v>
@@ -11106,7 +11114,7 @@
         <v>42796</v>
       </c>
       <c r="B3">
-        <v>2.8459583718900001</v>
+        <v>4.9354593773700004E-3</v>
       </c>
       <c r="D3" s="1">
         <v>42796</v>
@@ -11120,14 +11128,14 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G43" si="0">VLOOKUP(D3,$A:$B,2,FALSE)</f>
-        <v>2.8459583718900001</v>
+        <v>4.9354593773700004E-3</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="2">
         <f>CORREL(F7:F43,G2:G38)</f>
-        <v>0.21086218561696107</v>
+        <v>0.14770409246126001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -11135,7 +11143,7 @@
         <v>42797</v>
       </c>
       <c r="B4">
-        <v>17.724882969700001</v>
+        <v>4.10022779043E-2</v>
       </c>
       <c r="D4" s="1">
         <v>42797</v>
@@ -11149,14 +11157,14 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>17.724882969700001</v>
+        <v>4.10022779043E-2</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="2">
         <f>CORREL(F6:F43,G2:G39)</f>
-        <v>7.7522958963077829E-2</v>
+        <v>4.4063887759196202E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -11164,7 +11172,7 @@
         <v>42798</v>
       </c>
       <c r="B5">
-        <v>1.79147076869</v>
+        <v>1.5945330296099999E-2</v>
       </c>
       <c r="D5" s="1">
         <v>42800</v>
@@ -11178,14 +11186,14 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>7.9726381229000003</v>
+        <v>1.8223234624099999E-2</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="2">
         <f>CORREL(F5:F43,G2:G40)</f>
-        <v>3.5222307644470346E-2</v>
+        <v>7.5719516621644709E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -11193,7 +11201,7 @@
         <v>42799</v>
       </c>
       <c r="B6">
-        <v>0.21355280686399999</v>
+        <v>2.2779043280199999E-3</v>
       </c>
       <c r="D6" s="1">
         <v>42801</v>
@@ -11207,14 +11215,14 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>-0.57060406066699998</v>
+        <v>-1.5186028853500001E-3</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="2">
         <f>CORREL(F4:F43,G2:G41)</f>
-        <v>-0.1650153897618537</v>
+        <v>-0.14654044113676734</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -11222,7 +11230,7 @@
         <v>42800</v>
       </c>
       <c r="B7">
-        <v>7.9726381229000003</v>
+        <v>1.8223234624099999E-2</v>
       </c>
       <c r="D7" s="1">
         <v>42802</v>
@@ -11236,14 +11244,14 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>-7.8251849943599998</v>
+        <v>-2.0501138952200001E-2</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <f>CORREL(F3:F43,G2:G42)</f>
-        <v>8.6216795742838442E-2</v>
+        <v>8.1607039636787282E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -11251,7 +11259,7 @@
         <v>42801</v>
       </c>
       <c r="B8">
-        <v>-0.57060406066699998</v>
+        <v>-1.5186028853500001E-3</v>
       </c>
       <c r="D8" s="1">
         <v>42803</v>
@@ -11265,14 +11273,14 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>-22.4942289896</v>
+        <v>-5.46697038724E-2</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="2">
         <f>CORREL(F3:F43,G3:G43)</f>
-        <v>0.29121392963597942</v>
+        <v>0.25368156520212648</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -11280,7 +11288,7 @@
         <v>42802</v>
       </c>
       <c r="B9">
-        <v>-7.8251849943599998</v>
+        <v>-2.0501138952200001E-2</v>
       </c>
       <c r="D9" s="1">
         <v>42804</v>
@@ -11294,14 +11302,14 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>5.7823094662600001</v>
+        <v>1.74639331815E-2</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="2">
         <f>CORREL(F3:F42,G4:G43)</f>
-        <v>0.32282314562611325</v>
+        <v>0.34312421713228525</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -11309,7 +11317,7 @@
         <v>42803</v>
       </c>
       <c r="B10">
-        <v>-22.4942289896</v>
+        <v>-5.46697038724E-2</v>
       </c>
       <c r="D10" s="1">
         <v>42807</v>
@@ -11323,14 +11331,14 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-2.85584507591</v>
+        <v>-1.13895216401E-2</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="2">
         <f>CORREL(F3:F41,G5:G43)</f>
-        <v>-1.7583830642852284E-2</v>
+        <v>-6.0389568051254601E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -11338,7 +11346,7 @@
         <v>42804</v>
       </c>
       <c r="B11">
-        <v>5.7823094662600001</v>
+        <v>1.74639331815E-2</v>
       </c>
       <c r="D11" s="1">
         <v>42808</v>
@@ -11352,14 +11360,14 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-1.1525072116399999</v>
+        <v>-4.5558086560399998E-3</v>
       </c>
       <c r="I11" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="2">
         <f>CORREL(F3:F40,G6:G43)</f>
-        <v>9.62429154755233E-2</v>
+        <v>0.1316599019069993</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -11367,7 +11375,7 @@
         <v>42805</v>
       </c>
       <c r="B12">
-        <v>4.29365431789E-2</v>
+        <v>7.5930144267300002E-4</v>
       </c>
       <c r="D12" s="1">
         <v>42809</v>
@@ -11381,14 +11389,14 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>19.571719280899998</v>
+        <v>3.7205770690999999E-2</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="2">
         <f>CORREL(F3:F39,G7:G43)</f>
-        <v>-3.32541409939986E-2</v>
+        <v>-6.4081356247244481E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -11396,7 +11404,7 @@
         <v>42806</v>
       </c>
       <c r="B13">
-        <v>-0.281347348725</v>
+        <v>-4.5558086560399998E-3</v>
       </c>
       <c r="D13" s="1">
         <v>42810</v>
@@ -11410,14 +11418,14 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-2.9558420251599999</v>
+        <v>-9.1116173120700007E-3</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="2">
         <f>CORREL(F3:F38,G8:G43)</f>
-        <v>4.3781135660078227E-2</v>
+        <v>0.11576128592427447</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -11425,7 +11433,7 @@
         <v>42807</v>
       </c>
       <c r="B14">
-        <v>-2.85584507591</v>
+        <v>-1.13895216401E-2</v>
       </c>
       <c r="D14" s="1">
         <v>42811</v>
@@ -11439,7 +11447,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>9.4861512699600006</v>
+        <v>2.2019741837499999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -11447,7 +11455,7 @@
         <v>42808</v>
       </c>
       <c r="B15">
-        <v>-1.1525072116399999</v>
+        <v>-4.5558086560399998E-3</v>
       </c>
       <c r="D15" s="1">
         <v>42814</v>
@@ -11461,7 +11469,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>2.4581170969900001</v>
+        <v>7.2133637053900003E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -11469,7 +11477,7 @@
         <v>42809</v>
       </c>
       <c r="B16">
-        <v>19.571719280899998</v>
+        <v>3.7205770690999999E-2</v>
       </c>
       <c r="D16" s="1">
         <v>42815</v>
@@ -11483,7 +11491,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>20.682984812899999</v>
+        <v>2.6575550493500001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -11491,7 +11499,7 @@
         <v>42810</v>
       </c>
       <c r="B17">
-        <v>-2.9558420251599999</v>
+        <v>-9.1116173120700007E-3</v>
       </c>
       <c r="D17" s="1">
         <v>42816</v>
@@ -11505,7 +11513,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>-15.542463676200001</v>
+        <v>-3.11313591496E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -11513,7 +11521,7 @@
         <v>42811</v>
       </c>
       <c r="B18">
-        <v>9.4861512699600006</v>
+        <v>2.2019741837499999E-2</v>
       </c>
       <c r="D18" s="1">
         <v>42817</v>
@@ -11527,7 +11535,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>-16.289051068500001</v>
+        <v>-3.6066818527E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -11535,7 +11543,7 @@
         <v>42812</v>
       </c>
       <c r="B19">
-        <v>-1.0677640343200001</v>
+        <v>-1.13895216401E-2</v>
       </c>
       <c r="D19" s="1">
         <v>42818</v>
@@ -11549,7 +11557,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>-54.070666770599999</v>
+        <v>-0.10782080485999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -11557,7 +11565,7 @@
         <v>42813</v>
       </c>
       <c r="B20">
-        <v>0.30846516547000002</v>
+        <v>4.5558086560399998E-3</v>
       </c>
       <c r="D20" s="1">
         <v>42821</v>
@@ -11571,7 +11579,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>-4.7591768386700002</v>
+        <v>-1.0250569476100001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -11579,7 +11587,7 @@
         <v>42814</v>
       </c>
       <c r="B21">
-        <v>2.4581170969900001</v>
+        <v>7.2133637053900003E-3</v>
       </c>
       <c r="D21" s="1">
         <v>42822</v>
@@ -11593,7 +11601,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>30.2702629411</v>
+        <v>3.5687167805600002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -11601,7 +11609,7 @@
         <v>42815</v>
       </c>
       <c r="B22">
-        <v>20.682984812899999</v>
+        <v>2.6575550493500001E-2</v>
       </c>
       <c r="D22" s="1">
         <v>42823</v>
@@ -11615,7 +11623,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>41.219081451800001</v>
+        <v>7.2892938496600002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -11623,7 +11631,7 @@
         <v>42816</v>
       </c>
       <c r="B23">
-        <v>-15.542463676200001</v>
+        <v>-3.11313591496E-2</v>
       </c>
       <c r="D23" s="1">
         <v>42824</v>
@@ -11637,7 +11645,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>7.6664327754999997</v>
+        <v>1.74639331815E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -11645,7 +11653,7 @@
         <v>42817</v>
       </c>
       <c r="B24">
-        <v>-16.289051068500001</v>
+        <v>-3.6066818527E-2</v>
       </c>
       <c r="D24" s="1">
         <v>42825</v>
@@ -11659,7 +11667,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>-6.0862549956100001</v>
+        <v>-1.44267274108E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -11667,7 +11675,7 @@
         <v>42818</v>
       </c>
       <c r="B25">
-        <v>-54.070666770599999</v>
+        <v>-0.10782080485999999</v>
       </c>
       <c r="D25" s="1">
         <v>42828</v>
@@ -11681,7 +11689,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>4.6580499804000004</v>
+        <v>1.29081245254E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -11689,7 +11697,7 @@
         <v>42819</v>
       </c>
       <c r="B26">
-        <v>-1.30165520374</v>
+        <v>-1.2148823082800001E-2</v>
       </c>
       <c r="D26" s="1">
         <v>42829</v>
@@ -11703,7 +11711,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>-7.0952637603099999</v>
+        <v>-1.44267274108E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -11711,7 +11719,7 @@
         <v>42820</v>
       </c>
       <c r="B27">
-        <v>0.66438651024200002</v>
+        <v>6.0744115413799999E-3</v>
       </c>
       <c r="D27" s="1">
         <v>42830</v>
@@ -11725,7 +11733,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>-35.473494029000001</v>
+        <v>-5.9225512528500002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -11733,7 +11741,7 @@
         <v>42821</v>
       </c>
       <c r="B28">
-        <v>-4.7591768386700002</v>
+        <v>-1.0250569476100001E-2</v>
       </c>
       <c r="D28" s="1">
         <v>42831</v>
@@ -11747,7 +11755,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>-50.930649573399997</v>
+        <v>-0.113895216401</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -11755,7 +11763,7 @@
         <v>42822</v>
       </c>
       <c r="B29">
-        <v>30.2702629411</v>
+        <v>3.5687167805600002E-2</v>
       </c>
       <c r="D29" s="1">
         <v>42832</v>
@@ -11769,7 +11777,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>-22.6953527971</v>
+        <v>-6.3022019741799995E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -11777,7 +11785,7 @@
         <v>42823</v>
       </c>
       <c r="B30">
-        <v>41.219081451800001</v>
+        <v>7.2892938496600002E-2</v>
       </c>
       <c r="D30" s="1">
         <v>42835</v>
@@ -11791,7 +11799,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>-18.346897891299999</v>
+        <v>-5.6947608200500002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -11799,7 +11807,7 @@
         <v>42824</v>
       </c>
       <c r="B31">
-        <v>7.6664327754999997</v>
+        <v>1.74639331815E-2</v>
       </c>
       <c r="D31" s="1">
         <v>42836</v>
@@ -11813,7 +11821,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>-61.551511987799998</v>
+        <v>-0.105922551253</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -11821,7 +11829,7 @@
         <v>42825</v>
       </c>
       <c r="B32">
-        <v>-6.0862549956100001</v>
+        <v>-1.44267274108E-2</v>
       </c>
       <c r="D32" s="1">
         <v>42837</v>
@@ -11835,7 +11843,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>-23.579789091199999</v>
+        <v>-6.6438876233900004E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -11843,7 +11851,7 @@
         <v>42826</v>
       </c>
       <c r="B33">
-        <v>2.8219478049800002</v>
+        <v>3.4168564920300001E-2</v>
       </c>
       <c r="D33" s="1">
         <v>42838</v>
@@ -11857,7 +11865,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>-10.390643449300001</v>
+        <v>-2.88534548216E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -11865,7 +11873,7 @@
         <v>42827</v>
       </c>
       <c r="B34">
-        <v>1.7457094529299999</v>
+        <v>2.2779043280200001E-2</v>
       </c>
       <c r="D34" s="1">
         <v>42842</v>
@@ -11879,7 +11887,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>-7.6088074149200002</v>
+        <v>-2.12604403948E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -11887,7 +11895,7 @@
         <v>42828</v>
       </c>
       <c r="B35">
-        <v>4.6580499804000004</v>
+        <v>1.29081245254E-2</v>
       </c>
       <c r="D35" s="1">
         <v>42843</v>
@@ -11901,7 +11909,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>6.3896355704400003</v>
+        <v>1.9741837509499999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -11909,7 +11917,7 @@
         <v>42829</v>
       </c>
       <c r="B36">
-        <v>-7.0952637603099999</v>
+        <v>-1.44267274108E-2</v>
       </c>
       <c r="D36" s="1">
         <v>42844</v>
@@ -11923,7 +11931,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>-17.5327984344</v>
+        <v>-4.4798785117700003E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -11931,7 +11939,7 @@
         <v>42830</v>
       </c>
       <c r="B37">
-        <v>-35.473494029000001</v>
+        <v>-5.9225512528500002E-2</v>
       </c>
       <c r="D37" s="1">
         <v>42845</v>
@@ -11945,7 +11953,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>-22.670494798499998</v>
+        <v>-4.85952923311E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -11953,7 +11961,7 @@
         <v>42831</v>
       </c>
       <c r="B38">
-        <v>-50.930649573399997</v>
+        <v>-0.113895216401</v>
       </c>
       <c r="D38" s="1">
         <v>42846</v>
@@ -11967,7 +11975,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>-11.9792955469</v>
+        <v>-2.73348519362E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -11975,7 +11983,7 @@
         <v>42832</v>
       </c>
       <c r="B39">
-        <v>-22.6953527971</v>
+        <v>-6.3022019741799995E-2</v>
       </c>
       <c r="D39" s="1">
         <v>42849</v>
@@ -11989,7 +11997,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>-18.685870600600001</v>
+        <v>-4.7835990888400001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -11997,7 +12005,7 @@
         <v>42833</v>
       </c>
       <c r="B40">
-        <v>1.6813046381600001</v>
+        <v>1.8223234624099999E-2</v>
       </c>
       <c r="D40" s="1">
         <v>42850</v>
@@ -12011,7 +12019,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>-5.72411915117</v>
+        <v>-1.29081245254E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -12019,7 +12027,7 @@
         <v>42834</v>
       </c>
       <c r="B41">
-        <v>-0.246320168763</v>
+        <v>-3.03720577069E-3</v>
       </c>
       <c r="D41" s="1">
         <v>42851</v>
@@ -12033,7 +12041,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>-11.965736638499999</v>
+        <v>-2.2779043280200001E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -12041,7 +12049,7 @@
         <v>42835</v>
       </c>
       <c r="B42">
-        <v>-18.346897891299999</v>
+        <v>-5.6947608200500002E-2</v>
       </c>
       <c r="D42" s="1">
         <v>42852</v>
@@ -12055,7 +12063,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>-4.4693551722200002</v>
+        <v>-1.0250569476100001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -12063,7 +12071,7 @@
         <v>42836</v>
       </c>
       <c r="B43">
-        <v>-61.551511987799998</v>
+        <v>-0.105922551253</v>
       </c>
       <c r="D43" s="1">
         <v>42853</v>
@@ -12077,7 +12085,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>-68.973601935299996</v>
+        <v>-0.123766135156</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -12085,7 +12093,7 @@
         <v>42837</v>
       </c>
       <c r="B44">
-        <v>-23.579789091199999</v>
+        <v>-6.6438876233900004E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -12093,7 +12101,7 @@
         <v>42838</v>
       </c>
       <c r="B45">
-        <v>-10.390643449300001</v>
+        <v>-2.88534548216E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -12101,7 +12109,7 @@
         <v>42839</v>
       </c>
       <c r="B46">
-        <v>-3.0355006118499999</v>
+        <v>-2.0501138952200001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -12109,7 +12117,7 @@
         <v>42840</v>
       </c>
       <c r="B47">
-        <v>-0.415241568901</v>
+        <v>-5.3151100987099999E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -12117,7 +12125,7 @@
         <v>42841</v>
       </c>
       <c r="B48">
-        <v>0.16609662756099999</v>
+        <v>2.2779043280199999E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -12125,7 +12133,7 @@
         <v>42842</v>
       </c>
       <c r="B49">
-        <v>-7.6088074149200002</v>
+        <v>-2.12604403948E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -12133,7 +12141,7 @@
         <v>42843</v>
       </c>
       <c r="B50">
-        <v>6.3896355704400003</v>
+        <v>1.9741837509499999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -12141,7 +12149,7 @@
         <v>42844</v>
       </c>
       <c r="B51">
-        <v>-17.5327984344</v>
+        <v>-4.4798785117700003E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -12149,7 +12157,7 @@
         <v>42845</v>
       </c>
       <c r="B52">
-        <v>-22.670494798499998</v>
+        <v>-4.85952923311E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -12157,7 +12165,7 @@
         <v>42846</v>
       </c>
       <c r="B53">
-        <v>-11.9792955469</v>
+        <v>-2.73348519362E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -12165,7 +12173,7 @@
         <v>42847</v>
       </c>
       <c r="B54">
-        <v>-1.7236762268300001</v>
+        <v>-2.0501138952200001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -12173,7 +12181,7 @@
         <v>42848</v>
       </c>
       <c r="B55">
-        <v>2.6287333606800001</v>
+        <v>2.50569476082E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -12181,7 +12189,7 @@
         <v>42849</v>
       </c>
       <c r="B56">
-        <v>-18.685870600600001</v>
+        <v>-4.7835990888400001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -12189,7 +12197,7 @@
         <v>42850</v>
       </c>
       <c r="B57">
-        <v>-5.72411915117</v>
+        <v>-1.29081245254E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -12197,7 +12205,7 @@
         <v>42851</v>
       </c>
       <c r="B58">
-        <v>-11.965736638499999</v>
+        <v>-2.2779043280200001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -12205,7 +12213,7 @@
         <v>42852</v>
       </c>
       <c r="B59">
-        <v>-4.4693551722200002</v>
+        <v>-1.0250569476100001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -12213,7 +12221,7 @@
         <v>42853</v>
       </c>
       <c r="B60">
-        <v>-68.973601935299996</v>
+        <v>-0.123766135156</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -12221,7 +12229,7 @@
         <v>42854</v>
       </c>
       <c r="B61">
-        <v>1.5332865550999999</v>
+        <v>1.74639331815E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -12229,7 +12237,7 @@
         <v>42855</v>
       </c>
       <c r="B62">
-        <v>0.17626580884000001</v>
+        <v>2.2779043280199999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -12243,7 +12251,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12276,7 +12284,7 @@
         <v>42797</v>
       </c>
       <c r="B2">
-        <v>5.5435591761700001E-2</v>
+        <v>3.5460992907799999E-3</v>
       </c>
       <c r="D2" s="1">
         <v>42797</v>
@@ -12286,7 +12294,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G41" si="0">VLOOKUP(D2,$A:$B,2,FALSE)</f>
-        <v>5.5435591761700001E-2</v>
+        <v>3.5460992907799999E-3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>5</v>
@@ -12297,7 +12305,7 @@
         <v>42798</v>
       </c>
       <c r="B3">
-        <v>1.06911498398</v>
+        <v>1.7730496453899999E-2</v>
       </c>
       <c r="D3" s="1">
         <v>42800</v>
@@ -12311,14 +12319,14 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>6.0068423359000001</v>
+        <v>2.1867612293100001E-2</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="2">
         <f>CORREL(F7:F41,G2:G36)</f>
-        <v>-0.12492698383748962</v>
+        <v>-0.1097257037129503</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -12326,7 +12334,7 @@
         <v>42799</v>
       </c>
       <c r="B4">
-        <v>0.19006488603999999</v>
+        <v>3.5460992907799999E-3</v>
       </c>
       <c r="D4" s="1">
         <v>42801</v>
@@ -12340,14 +12348,14 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>-0.80073632544700002</v>
+        <v>-2.36406619385E-3</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="2">
         <f>CORREL(F6:F41,G2:G37)</f>
-        <v>-0.26654859335994135</v>
+        <v>-0.29599256660206996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -12355,7 +12363,7 @@
         <v>42800</v>
       </c>
       <c r="B5">
-        <v>6.0068423359000001</v>
+        <v>2.1867612293100001E-2</v>
       </c>
       <c r="D5" s="1">
         <v>42802</v>
@@ -12369,14 +12377,14 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>-9.9784065171100007</v>
+        <v>-3.30969267139E-2</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="2">
         <f>CORREL(F5:F41,G2:G38)</f>
-        <v>3.4738644352717757E-2</v>
+        <v>4.5344106309264123E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -12384,7 +12392,7 @@
         <v>42801</v>
       </c>
       <c r="B6">
-        <v>-0.80073632544700002</v>
+        <v>-2.36406619385E-3</v>
       </c>
       <c r="D6" s="1">
         <v>42803</v>
@@ -12398,14 +12406,14 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>5.75386245286</v>
+        <v>1.5366430259999999E-2</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="2">
         <f>CORREL(F4:F41,G2:G39)</f>
-        <v>-0.53343495852090039</v>
+        <v>-0.62378735033789035</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -12413,7 +12421,7 @@
         <v>42802</v>
       </c>
       <c r="B7">
-        <v>-9.9784065171100007</v>
+        <v>-3.30969267139E-2</v>
       </c>
       <c r="D7" s="1">
         <v>42804</v>
@@ -12427,14 +12435,14 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>17.810663695999999</v>
+        <v>4.60992907801E-2</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <f>CORREL(F3:F41,G2:G40)</f>
-        <v>-0.16271699152920574</v>
+        <v>-0.16646579099707876</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -12442,7 +12450,7 @@
         <v>42803</v>
       </c>
       <c r="B8">
-        <v>5.75386245286</v>
+        <v>1.5366430259999999E-2</v>
       </c>
       <c r="D8" s="1">
         <v>42807</v>
@@ -12456,14 +12464,14 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>-5.5435591761699996</v>
+        <v>-2.36406619385E-2</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="2">
         <f>CORREL(F3:F41,G3:G41)</f>
-        <v>0.15866231830327088</v>
+        <v>3.7728075004977234E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -12471,7 +12479,7 @@
         <v>42804</v>
       </c>
       <c r="B9">
-        <v>17.810663695999999</v>
+        <v>4.60992907801E-2</v>
       </c>
       <c r="D9" s="1">
         <v>42808</v>
@@ -12485,14 +12493,14 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>-3.7617008695499998</v>
+        <v>-1.7730496453899999E-2</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="2">
         <f>CORREL(F3:F40,G4:G41)</f>
-        <v>-0.18295429841194552</v>
+        <v>-0.24104657837081556</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -12500,7 +12508,7 @@
         <v>42805</v>
       </c>
       <c r="B10">
-        <v>1.3462929427899999</v>
+        <v>1.7730496453899999E-2</v>
       </c>
       <c r="D10" s="1">
         <v>42809</v>
@@ -12514,14 +12522,14 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>12.747546315099999</v>
+        <v>3.9007092198599998E-2</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="2">
         <f>CORREL(F3:F39,G5:G41)</f>
-        <v>-3.6930753378416815E-2</v>
+        <v>-9.1910129628304582E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -12529,7 +12537,7 @@
         <v>42806</v>
       </c>
       <c r="B11">
-        <v>-0.28333746900399998</v>
+        <v>-4.1371158392399998E-3</v>
       </c>
       <c r="D11" s="1">
         <v>42810</v>
@@ -12543,14 +12551,14 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-25.746752618199999</v>
+        <v>-8.9834515366399997E-2</v>
       </c>
       <c r="I11" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="2">
         <f>CORREL(F3:F38,G6:G41)</f>
-        <v>7.5111308006402117E-2</v>
+        <v>0.11975223833785427</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -12558,7 +12566,7 @@
         <v>42807</v>
       </c>
       <c r="B12">
-        <v>-5.5435591761699996</v>
+        <v>-2.36406619385E-2</v>
       </c>
       <c r="D12" s="1">
         <v>42811</v>
@@ -12572,14 +12580,14 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>5.1924670950199996</v>
+        <v>2.4822695035500001E-2</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="2">
         <f>CORREL(F3:F37,G7:G41)</f>
-        <v>0.11142553112217925</v>
+        <v>1.5579760866725514E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -12587,7 +12595,7 @@
         <v>42808</v>
       </c>
       <c r="B13">
-        <v>-3.7617008695499998</v>
+        <v>-1.7730496453899999E-2</v>
       </c>
       <c r="D13" s="1">
         <v>42814</v>
@@ -12601,14 +12609,14 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-0.87641030785200003</v>
+        <v>-4.7281323877099999E-3</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="2">
         <f>CORREL(F3:F36,G8:G41)</f>
-        <v>-2.920975261146385E-2</v>
+        <v>-1.3335799255889427E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -12616,7 +12624,7 @@
         <v>42809</v>
       </c>
       <c r="B14">
-        <v>12.747546315099999</v>
+        <v>3.9007092198599998E-2</v>
       </c>
       <c r="D14" s="1">
         <v>42815</v>
@@ -12630,7 +12638,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>-25.3895010269</v>
+        <v>-4.9645390070899999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -12638,7 +12646,7 @@
         <v>42810</v>
       </c>
       <c r="B15">
-        <v>-25.746752618199999</v>
+        <v>-8.9834515366399997E-2</v>
       </c>
       <c r="D15" s="1">
         <v>42816</v>
@@ -12652,7 +12660,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>-6.8062587663</v>
+        <v>-2.06855791962E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -12660,7 +12668,7 @@
         <v>42811</v>
       </c>
       <c r="B16">
-        <v>5.1924670950199996</v>
+        <v>2.4822695035500001E-2</v>
       </c>
       <c r="D16" s="1">
         <v>42817</v>
@@ -12674,7 +12682,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>-6.8423358974499999</v>
+        <v>-3.1914893616999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -12682,7 +12690,7 @@
         <v>42812</v>
       </c>
       <c r="B17">
-        <v>1.3858897940399999</v>
+        <v>2.4822695035500001E-2</v>
       </c>
       <c r="D17" s="1">
         <v>42818</v>
@@ -12696,7 +12704,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>-20.426695669200001</v>
+        <v>-8.6288416075699995E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -12704,7 +12712,7 @@
         <v>42813</v>
       </c>
       <c r="B18">
-        <v>0.80777576567099996</v>
+        <v>2.1276595744699998E-2</v>
       </c>
       <c r="D18" s="1">
         <v>42821</v>
@@ -12718,7 +12726,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>-20.3985379083</v>
+        <v>-7.9196217494099996E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -12726,7 +12734,7 @@
         <v>42814</v>
       </c>
       <c r="B19">
-        <v>-0.87641030785200003</v>
+        <v>-4.7281323877099999E-3</v>
       </c>
       <c r="D19" s="1">
         <v>42822</v>
@@ -12740,7 +12748,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>-7.3773333544500002</v>
+        <v>-1.89125295508E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -12748,7 +12756,7 @@
         <v>42815</v>
       </c>
       <c r="B20">
-        <v>-25.3895010269</v>
+        <v>-4.9645390070899999E-2</v>
       </c>
       <c r="D20" s="1">
         <v>42823</v>
@@ -12762,7 +12770,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>-16.246148106300002</v>
+        <v>-4.3735224586299998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -12770,7 +12778,7 @@
         <v>42816</v>
       </c>
       <c r="B21">
-        <v>-6.8062587663</v>
+        <v>-2.06855791962E-2</v>
       </c>
       <c r="D21" s="1">
         <v>42824</v>
@@ -12784,7 +12792,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>-15.6486756173</v>
+        <v>-6.7375886524800005E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -12792,7 +12800,7 @@
         <v>42817</v>
       </c>
       <c r="B22">
-        <v>-6.8423358974499999</v>
+        <v>-3.1914893616999999E-2</v>
       </c>
       <c r="D22" s="1">
         <v>42825</v>
@@ -12806,7 +12814,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>6.4859642361200001</v>
+        <v>3.1914893616999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -12814,7 +12822,7 @@
         <v>42818</v>
       </c>
       <c r="B23">
-        <v>-20.426695669200001</v>
+        <v>-8.6288416075699995E-2</v>
       </c>
       <c r="D23" s="1">
         <v>42828</v>
@@ -12828,7 +12836,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0.70482395239899998</v>
+        <v>3.5460992907799999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -12836,7 +12844,7 @@
         <v>42819</v>
       </c>
       <c r="B24">
-        <v>0.96088359053700001</v>
+        <v>1.6548463356999998E-2</v>
       </c>
       <c r="D24" s="1">
         <v>42829</v>
@@ -12850,7 +12858,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>-1.65250859252</v>
+        <v>-7.0921985815599999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -12858,7 +12866,7 @@
         <v>42820</v>
       </c>
       <c r="B25">
-        <v>0.47516221510099999</v>
+        <v>7.0921985815599999E-3</v>
       </c>
       <c r="D25" s="1">
         <v>42830</v>
@@ -12872,7 +12880,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>16.6861131203</v>
+        <v>5.7919621749399998E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -12880,7 +12888,7 @@
         <v>42821</v>
       </c>
       <c r="B26">
-        <v>-20.3985379083</v>
+        <v>-7.9196217494099996E-2</v>
       </c>
       <c r="D26" s="1">
         <v>42831</v>
@@ -12894,7 +12902,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>-7.7293053656400001</v>
+        <v>-2.83687943262E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -12902,7 +12910,7 @@
         <v>42822</v>
       </c>
       <c r="B27">
-        <v>-7.3773333544500002</v>
+        <v>-1.89125295508E-2</v>
       </c>
       <c r="D27" s="1">
         <v>42832</v>
@@ -12916,7 +12924,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>5.7653015432199997</v>
+        <v>2.83687943262E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -12924,7 +12932,7 @@
         <v>42823</v>
       </c>
       <c r="B28">
-        <v>-16.246148106300002</v>
+        <v>-4.3735224586299998E-2</v>
       </c>
       <c r="D28" s="1">
         <v>42835</v>
@@ -12938,7 +12946,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>0.63090983005000001</v>
+        <v>3.5460992907799999E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -12946,7 +12954,7 @@
         <v>42824</v>
       </c>
       <c r="B29">
-        <v>-15.6486756173</v>
+        <v>-6.7375886524800005E-2</v>
       </c>
       <c r="D29" s="1">
         <v>42836</v>
@@ -12960,7 +12968,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>2.0194394141799998</v>
+        <v>8.8652482269499996E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -12968,7 +12976,7 @@
         <v>42825</v>
       </c>
       <c r="B30">
-        <v>6.4859642361200001</v>
+        <v>3.1914893616999999E-2</v>
       </c>
       <c r="D30" s="1">
         <v>42837</v>
@@ -12982,7 +12990,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>-16.203031534899999</v>
+        <v>-7.8014184397199995E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -12990,7 +12998,7 @@
         <v>42826</v>
       </c>
       <c r="B31">
-        <v>0.41708683325500001</v>
+        <v>7.0921985815599999E-3</v>
       </c>
       <c r="D31" s="1">
         <v>42838</v>
@@ -13004,7 +13012,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>-8.3417366650999991</v>
+        <v>-3.5460992907799999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -13012,7 +13020,7 @@
         <v>42827</v>
       </c>
       <c r="B32">
-        <v>-0.388049142332</v>
+        <v>-8.2742316784900002E-3</v>
       </c>
       <c r="D32" s="1">
         <v>42842</v>
@@ -13026,7 +13034,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>-18.816423717999999</v>
+        <v>-7.8014184397199995E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -13034,7 +13042,7 @@
         <v>42828</v>
       </c>
       <c r="B33">
-        <v>0.70482395239899998</v>
+        <v>3.5460992907799999E-3</v>
       </c>
       <c r="D33" s="1">
         <v>42843</v>
@@ -13048,7 +13056,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>-12.438690875300001</v>
+        <v>-3.6643026004699999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -13056,7 +13064,7 @@
         <v>42829</v>
       </c>
       <c r="B34">
-        <v>-1.65250859252</v>
+        <v>-7.0921985815599999E-3</v>
       </c>
       <c r="D34" s="1">
         <v>42844</v>
@@ -13070,7 +13078,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>3.9280076448300001</v>
+        <v>1.0638297872299999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -13078,7 +13086,7 @@
         <v>42830</v>
       </c>
       <c r="B35">
-        <v>16.6861131203</v>
+        <v>5.7919621749399998E-2</v>
       </c>
       <c r="D35" s="1">
         <v>42845</v>
@@ -13092,7 +13100,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>-6.36189410218</v>
+        <v>-1.7730496453899999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -13100,7 +13108,7 @@
         <v>42831</v>
       </c>
       <c r="B36">
-        <v>-7.7293053656400001</v>
+        <v>-2.83687943262E-2</v>
       </c>
       <c r="D36" s="1">
         <v>42846</v>
@@ -13114,7 +13122,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>-12.594966448299999</v>
+        <v>-6.7139479905400007E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -13122,7 +13130,7 @@
         <v>42832</v>
       </c>
       <c r="B37">
-        <v>5.7653015432199997</v>
+        <v>2.83687943262E-2</v>
       </c>
       <c r="D37" s="1">
         <v>42849</v>
@@ -13136,7 +13144,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>-13.762105637399999</v>
+        <v>-4.7281323877099997E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -13144,7 +13152,7 @@
         <v>42833</v>
       </c>
       <c r="B38">
-        <v>0.62914996999399997</v>
+        <v>1.3002364066199999E-2</v>
       </c>
       <c r="D38" s="1">
         <v>42850</v>
@@ -13158,7 +13166,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>-13.2403071308</v>
+        <v>-4.8463356973999998E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -13166,7 +13174,7 @@
         <v>42834</v>
       </c>
       <c r="B39">
-        <v>0.268378658529</v>
+        <v>5.9101654846300004E-3</v>
       </c>
       <c r="D39" s="1">
         <v>42851</v>
@@ -13180,7 +13188,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>-27.9395382479</v>
+        <v>-0.115839243499</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -13188,7 +13196,7 @@
         <v>42835</v>
       </c>
       <c r="B40">
-        <v>0.63090983005000001</v>
+        <v>3.5460992907799999E-3</v>
       </c>
       <c r="D40" s="1">
         <v>42852</v>
@@ -13202,7 +13210,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>-1.9006488604</v>
+        <v>-5.3191489361700001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -13210,7 +13218,7 @@
         <v>42836</v>
       </c>
       <c r="B41">
-        <v>2.0194394141799998</v>
+        <v>8.8652482269499996E-3</v>
       </c>
       <c r="D41" s="1">
         <v>42853</v>
@@ -13224,7 +13232,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>29.547170409</v>
+        <v>4.8463356973999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -13232,7 +13240,7 @@
         <v>42837</v>
       </c>
       <c r="B42">
-        <v>-16.203031534899999</v>
+        <v>-7.8014184397199995E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -13240,7 +13248,7 @@
         <v>42838</v>
       </c>
       <c r="B43">
-        <v>-8.3417366650999991</v>
+        <v>-3.5460992907799999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -13248,7 +13256,7 @@
         <v>42839</v>
       </c>
       <c r="B44">
-        <v>-1.0347977128900001</v>
+        <v>-1.41843971631E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -13256,7 +13264,7 @@
         <v>42840</v>
       </c>
       <c r="B45">
-        <v>-0.57811402837199999</v>
+        <v>-1.0638297872299999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -13264,7 +13272,7 @@
         <v>42841</v>
       </c>
       <c r="B46">
-        <v>-0.45404389442999998</v>
+        <v>-7.0921985815599999E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -13272,7 +13280,7 @@
         <v>42842</v>
       </c>
       <c r="B47">
-        <v>-18.816423717999999</v>
+        <v>-7.8014184397199995E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -13280,7 +13288,7 @@
         <v>42843</v>
       </c>
       <c r="B48">
-        <v>-12.438690875300001</v>
+        <v>-3.6643026004699999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -13288,7 +13296,7 @@
         <v>42844</v>
       </c>
       <c r="B49">
-        <v>3.9280076448300001</v>
+        <v>1.0638297872299999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -13296,7 +13304,7 @@
         <v>42845</v>
       </c>
       <c r="B50">
-        <v>-6.36189410218</v>
+        <v>-1.7730496453899999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -13304,7 +13312,7 @@
         <v>42846</v>
       </c>
       <c r="B51">
-        <v>-12.594966448299999</v>
+        <v>-6.7139479905400007E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -13312,7 +13320,7 @@
         <v>42847</v>
       </c>
       <c r="B52">
-        <v>0.20590362654399999</v>
+        <v>3.5460992907799999E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -13320,7 +13328,7 @@
         <v>42848</v>
       </c>
       <c r="B53">
-        <v>1.77393893638</v>
+        <v>2.83687943262E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -13328,7 +13336,7 @@
         <v>42849</v>
       </c>
       <c r="B54">
-        <v>-13.762105637399999</v>
+        <v>-4.7281323877099997E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -13336,7 +13344,7 @@
         <v>42850</v>
       </c>
       <c r="B55">
-        <v>-13.2403071308</v>
+        <v>-4.8463356973999998E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -13344,7 +13352,7 @@
         <v>42851</v>
       </c>
       <c r="B56">
-        <v>-27.9395382479</v>
+        <v>-0.115839243499</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -13352,7 +13360,7 @@
         <v>42852</v>
       </c>
       <c r="B57">
-        <v>-1.9006488604</v>
+        <v>-5.3191489361700001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -13360,7 +13368,7 @@
         <v>42853</v>
       </c>
       <c r="B58">
-        <v>29.547170409</v>
+        <v>4.8463356973999998E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -13368,7 +13376,7 @@
         <v>42854</v>
       </c>
       <c r="B59">
-        <v>0.78401765491599995</v>
+        <v>1.0638297872299999E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -13376,7 +13384,7 @@
         <v>42855</v>
       </c>
       <c r="B60">
-        <v>3.48452291074</v>
+        <v>4.2553191489399997E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -13384,7 +13392,7 @@
         <v>42856</v>
       </c>
       <c r="B61">
-        <v>-1.0435970131700001</v>
+        <v>-2.36406619385E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -13392,7 +13400,7 @@
         <v>42857</v>
       </c>
       <c r="B62">
-        <v>-9.7672233104E-2</v>
+        <v>-3.5460992907799999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -13405,7 +13413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13437,7 +13447,7 @@
         <v>42796</v>
       </c>
       <c r="B2">
-        <v>-2.7168006955000001E-2</v>
+        <v>-3.3167495854099999E-3</v>
       </c>
       <c r="D2" s="1">
         <v>42796</v>
@@ -13447,7 +13457,7 @@
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G42" si="0">VLOOKUP(D2,$A:$B,2,FALSE)</f>
-        <v>-2.7168006955000001E-2</v>
+        <v>-3.3167495854099999E-3</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>5</v>
@@ -13458,7 +13468,7 @@
         <v>42797</v>
       </c>
       <c r="B3">
-        <v>-27.587258698700001</v>
+        <v>-7.7667219458300005E-2</v>
       </c>
       <c r="D3" s="1">
         <v>42797</v>
@@ -13472,14 +13482,14 @@
       </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>-27.587258698700001</v>
+        <v>-7.7667219458300005E-2</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="2">
         <f>CORREL(F7:F42,G2:G37)</f>
-        <v>5.5470698038436017E-2</v>
+        <v>1.7906673220642922E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -13487,7 +13497,7 @@
         <v>42798</v>
       </c>
       <c r="B4">
-        <v>-1.67083242773</v>
+        <v>-2.2664455500299999E-2</v>
       </c>
       <c r="D4" s="1">
         <v>42800</v>
@@ -13501,14 +13511,14 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>-5.4113730216800002</v>
+        <v>-2.3217247097800001E-2</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="2">
         <f>CORREL(F6:F42,G2:G38)</f>
-        <v>0.22708324555693235</v>
+        <v>0.24448155364087168</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -13516,7 +13526,7 @@
         <v>42799</v>
       </c>
       <c r="B5">
-        <v>-0.27785461658499999</v>
+        <v>-4.9751243781099999E-3</v>
       </c>
       <c r="D5" s="1">
         <v>42801</v>
@@ -13530,14 +13540,14 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>-17.0769447353</v>
+        <v>-5.22388059701E-2</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="2">
         <f>CORREL(F5:F42,G2:G39)</f>
-        <v>4.2346209460958434E-2</v>
+        <v>5.0508447237111648E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -13545,7 +13555,7 @@
         <v>42800</v>
       </c>
       <c r="B6">
-        <v>-5.4113730216800002</v>
+        <v>-2.3217247097800001E-2</v>
       </c>
       <c r="D6" s="1">
         <v>42802</v>
@@ -13559,14 +13569,14 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>-7.6136281309099996</v>
+        <v>-1.8794914317300002E-2</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="2">
         <f>CORREL(F4:F42,G2:G40)</f>
-        <v>5.3453415242421344E-2</v>
+        <v>-1.7835652902238545E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -13574,7 +13584,7 @@
         <v>42801</v>
       </c>
       <c r="B7">
-        <v>-17.0769447353</v>
+        <v>-5.22388059701E-2</v>
       </c>
       <c r="D7" s="1">
         <v>42803</v>
@@ -13588,14 +13598,14 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>-35.872060092300003</v>
+        <v>-8.01547816473E-2</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <f>CORREL(F3:F42,G2:G41)</f>
-        <v>5.7838584921819064E-2</v>
+        <v>0.10254884069357821</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -13603,7 +13613,7 @@
         <v>42802</v>
       </c>
       <c r="B8">
-        <v>-7.6136281309099996</v>
+        <v>-1.8794914317300002E-2</v>
       </c>
       <c r="D8" s="1">
         <v>42804</v>
@@ -13617,14 +13627,14 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>-8.8419513544499999</v>
+        <v>-3.3167495854099997E-2</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="2">
         <f>CORREL(F3:F42,G3:G42)</f>
-        <v>0.1614274545916761</v>
+        <v>0.25194120601083059</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -13632,7 +13642,7 @@
         <v>42803</v>
       </c>
       <c r="B9">
-        <v>-35.872060092300003</v>
+        <v>-8.01547816473E-2</v>
       </c>
       <c r="D9" s="1">
         <v>42807</v>
@@ -13646,14 +13656,14 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>-3.9480053743300001</v>
+        <v>-1.2714206744100001E-2</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="2">
         <f>CORREL(F3:F41,G4:G42)</f>
-        <v>-1.5527161045223146E-2</v>
+        <v>3.0915924691121255E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -13661,7 +13671,7 @@
         <v>42804</v>
       </c>
       <c r="B10">
-        <v>-8.8419513544499999</v>
+        <v>-3.3167495854099997E-2</v>
       </c>
       <c r="D10" s="1">
         <v>42808</v>
@@ -13675,14 +13685,14 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>-46.426007521400003</v>
+        <v>-5.8595909342199999E-2</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="2">
         <f>CORREL(F3:F40,G5:G42)</f>
-        <v>-8.7958255222223738E-2</v>
+        <v>-5.1450942062753378E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -13690,7 +13700,7 @@
         <v>42805</v>
       </c>
       <c r="B11">
-        <v>-1.0867202782000001</v>
+        <v>-1.82421227197E-2</v>
       </c>
       <c r="D11" s="1">
         <v>42809</v>
@@ -13704,14 +13714,14 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>-121.471246369</v>
+        <v>-0.13294637921499999</v>
       </c>
       <c r="I11" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="2">
         <f>CORREL(F3:F39,G6:G42)</f>
-        <v>-8.2385541993252681E-2</v>
+        <v>-0.10193124737919111</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -13719,7 +13729,7 @@
         <v>42806</v>
       </c>
       <c r="B12">
-        <v>-2.2327162079399998</v>
+        <v>-2.6533996683300001E-2</v>
       </c>
       <c r="D12" s="1">
         <v>42810</v>
@@ -13733,14 +13743,14 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>-50.206476852900003</v>
+        <v>-6.9651741293500005E-2</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" s="2">
         <f>CORREL(F3:F38,G7:G42)</f>
-        <v>-3.538293001706605E-2</v>
+        <v>-1.1446187414628859E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -13748,7 +13758,7 @@
         <v>42807</v>
       </c>
       <c r="B13">
-        <v>-3.9480053743300001</v>
+        <v>-1.2714206744100001E-2</v>
       </c>
       <c r="D13" s="1">
         <v>42811</v>
@@ -13762,14 +13772,14 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>-22.920124413</v>
+        <v>-5.3344389165300002E-2</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="2">
         <f>CORREL(F3:F37,G8:G42)</f>
-        <v>0.33412489119698652</v>
+        <v>0.35131906632178356</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -13777,7 +13787,7 @@
         <v>42808</v>
       </c>
       <c r="B14">
-        <v>-46.426007521400003</v>
+        <v>-5.8595909342199999E-2</v>
       </c>
       <c r="D14" s="1">
         <v>42814</v>
@@ -13791,7 +13801,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>-18.322350872299999</v>
+        <v>-6.1359867329999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -13799,7 +13809,7 @@
         <v>42809</v>
       </c>
       <c r="B15">
-        <v>-121.471246369</v>
+        <v>-0.13294637921499999</v>
       </c>
       <c r="D15" s="1">
         <v>42815</v>
@@ -13813,7 +13823,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>-32.246777709699998</v>
+        <v>-7.2415699281400001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -13821,7 +13831,7 @@
         <v>42810</v>
       </c>
       <c r="B16">
-        <v>-50.206476852900003</v>
+        <v>-6.9651741293500005E-2</v>
       </c>
       <c r="D16" s="1">
         <v>42816</v>
@@ -13835,7 +13845,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>-10.040430934</v>
+        <v>-4.4499723604200001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -13843,7 +13853,7 @@
         <v>42811</v>
       </c>
       <c r="B17">
-        <v>-22.920124413</v>
+        <v>-5.3344389165300002E-2</v>
       </c>
       <c r="D17" s="1">
         <v>42817</v>
@@ -13857,7 +13867,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>3.74918495979</v>
+        <v>1.45936981758E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -13865,7 +13875,7 @@
         <v>42812</v>
       </c>
       <c r="B18">
-        <v>-2.3117504099900001</v>
+        <v>-2.6533996683300001E-2</v>
       </c>
       <c r="D18" s="1">
         <v>42818</v>
@@ -13879,7 +13889,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>-5.7258632839999999</v>
+        <v>-1.4372581536799999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -13887,7 +13897,7 @@
         <v>42813</v>
       </c>
       <c r="B19">
-        <v>-0.771818379404</v>
+        <v>-8.2918739635199998E-3</v>
       </c>
       <c r="D19" s="1">
         <v>42821</v>
@@ -13909,7 +13919,7 @@
         <v>42814</v>
       </c>
       <c r="B20">
-        <v>-18.322350872299999</v>
+        <v>-6.1359867329999998E-2</v>
       </c>
       <c r="D20" s="1">
         <v>42822</v>
@@ -13923,7 +13933,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>-37.577058346999998</v>
+        <v>-4.4776119402999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -13931,7 +13941,7 @@
         <v>42815</v>
       </c>
       <c r="B21">
-        <v>-32.246777709699998</v>
+        <v>-7.2415699281400001E-2</v>
       </c>
       <c r="D21" s="1">
         <v>42823</v>
@@ -13945,7 +13955,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>-21.2272694342</v>
+        <v>-4.8645660585999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -13953,7 +13963,7 @@
         <v>42816</v>
       </c>
       <c r="B22">
-        <v>-10.040430934</v>
+        <v>-4.4499723604200001E-2</v>
       </c>
       <c r="D22" s="1">
         <v>42824</v>
@@ -13967,7 +13977,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>-21.455316037999999</v>
+        <v>-4.0353786622400002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -13975,7 +13985,7 @@
         <v>42817</v>
       </c>
       <c r="B23">
-        <v>3.74918495979</v>
+        <v>1.45936981758E-2</v>
       </c>
       <c r="D23" s="1">
         <v>42825</v>
@@ -13989,7 +13999,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>-16.877095229599998</v>
+        <v>-4.5328911000599999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -13997,7 +14007,7 @@
         <v>42818</v>
       </c>
       <c r="B24">
-        <v>-5.7258632839999999</v>
+        <v>-1.4372581536799999E-2</v>
       </c>
       <c r="D24" s="1">
         <v>42828</v>
@@ -14011,7 +14021,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>-103.314579176</v>
+        <v>-5.5831951354299997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -14019,7 +14029,7 @@
         <v>42819</v>
       </c>
       <c r="B25">
-        <v>0.24883424552</v>
+        <v>3.59314538419E-3</v>
       </c>
       <c r="D25" s="1">
         <v>42829</v>
@@ -14033,7 +14043,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>-52.147754440699998</v>
+        <v>-3.8142620232199997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -14041,7 +14051,7 @@
         <v>42820</v>
       </c>
       <c r="B26">
-        <v>-0.78787220169500005</v>
+        <v>-1.21614151465E-2</v>
       </c>
       <c r="D26" s="1">
         <v>42830</v>
@@ -14055,7 +14065,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>-23.564541305199999</v>
+        <v>-2.4046434494199999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -14077,7 +14087,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>-98.980458793500006</v>
+        <v>-0.128800442233</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -14085,7 +14095,7 @@
         <v>42822</v>
       </c>
       <c r="B28">
-        <v>-37.577058346999998</v>
+        <v>-4.4776119402999998E-2</v>
       </c>
       <c r="D28" s="1">
         <v>42832</v>
@@ -14099,7 +14109,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>-25.871352077600001</v>
+        <v>-4.1459369817599998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -14107,7 +14117,7 @@
         <v>42823</v>
       </c>
       <c r="B29">
-        <v>-21.2272694342</v>
+        <v>-4.8645660585999999E-2</v>
       </c>
       <c r="D29" s="1">
         <v>42835</v>
@@ -14121,7 +14131,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>-26.424591492000001</v>
+        <v>-2.1558872305100001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -14129,7 +14139,7 @@
         <v>42824</v>
       </c>
       <c r="B30">
-        <v>-21.455316037999999</v>
+        <v>-4.0353786622400002E-2</v>
       </c>
       <c r="D30" s="1">
         <v>42836</v>
@@ -14143,7 +14153,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>-167.657887284</v>
+        <v>-0.16362631288000001</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -14151,7 +14161,7 @@
         <v>42825</v>
       </c>
       <c r="B31">
-        <v>-16.877095229599998</v>
+        <v>-4.5328911000599999E-2</v>
       </c>
       <c r="D31" s="1">
         <v>42837</v>
@@ -14165,7 +14175,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>-257.47243682200002</v>
+        <v>-0.19071310116099999</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -14173,7 +14183,7 @@
         <v>42826</v>
       </c>
       <c r="B32">
-        <v>-0.13975058123100001</v>
+        <v>-1.9347705914899999E-3</v>
       </c>
       <c r="D32" s="1">
         <v>42838</v>
@@ -14187,7 +14197,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>-141.59018461100001</v>
+        <v>-0.11304588170300001</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -14209,7 +14219,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>-35.7588600634</v>
+        <v>-6.57822001106E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -14217,7 +14227,7 @@
         <v>42828</v>
       </c>
       <c r="B34">
-        <v>-103.314579176</v>
+        <v>-5.5831951354299997E-2</v>
       </c>
       <c r="D34" s="1">
         <v>42843</v>
@@ -14231,7 +14241,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>-31.644141919100001</v>
+        <v>-7.3521282476499999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -14239,7 +14249,7 @@
         <v>42829</v>
       </c>
       <c r="B35">
-        <v>-52.147754440699998</v>
+        <v>-3.8142620232199997E-2</v>
       </c>
       <c r="D35" s="1">
         <v>42844</v>
@@ -14253,7 +14263,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>-40.660627136400002</v>
+        <v>-9.01050304035E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -14261,7 +14271,7 @@
         <v>42830</v>
       </c>
       <c r="B36">
-        <v>-23.564541305199999</v>
+        <v>-2.4046434494199999E-2</v>
       </c>
       <c r="D36" s="1">
         <v>42845</v>
@@ -14275,7 +14285,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>-329.18181488900001</v>
+        <v>-0.36777224986200002</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -14283,7 +14293,7 @@
         <v>42831</v>
       </c>
       <c r="B37">
-        <v>-98.980458793500006</v>
+        <v>-0.128800442233</v>
       </c>
       <c r="D37" s="1">
         <v>42846</v>
@@ -14297,7 +14307,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>-82.629640789600003</v>
+        <v>-0.13515754560500001</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -14305,7 +14315,7 @@
         <v>42832</v>
       </c>
       <c r="B38">
-        <v>-25.871352077600001</v>
+        <v>-4.1459369817599998E-2</v>
       </c>
       <c r="D38" s="1">
         <v>42849</v>
@@ -14319,7 +14329,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>-36.064294323399999</v>
+        <v>-8.1260364842500002E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -14327,7 +14337,7 @@
         <v>42833</v>
       </c>
       <c r="B39">
-        <v>2.4558231741499998</v>
+        <v>2.1006080707599999E-2</v>
       </c>
       <c r="D39" s="1">
         <v>42850</v>
@@ -14341,7 +14351,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>-40.059637891599998</v>
+        <v>-6.8269762299599995E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -14349,7 +14359,7 @@
         <v>42834</v>
       </c>
       <c r="B40">
-        <v>-1.19209921427</v>
+        <v>-8.84466556108E-3</v>
       </c>
       <c r="D40" s="1">
         <v>42851</v>
@@ -14363,7 +14373,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>-36.669564587399996</v>
+        <v>-8.4466556108300006E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -14371,7 +14381,7 @@
         <v>42835</v>
       </c>
       <c r="B41">
-        <v>-26.424591492000001</v>
+        <v>-2.1558872305100001E-2</v>
       </c>
       <c r="D41" s="1">
         <v>42852</v>
@@ -14385,7 +14395,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>-17.2105207695</v>
+        <v>-4.0906578220000003E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -14393,7 +14403,7 @@
         <v>42836</v>
       </c>
       <c r="B42">
-        <v>-167.657887284</v>
+        <v>-0.16362631288000001</v>
       </c>
       <c r="D42" s="1">
         <v>42853</v>
@@ -14407,7 +14417,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>-59.770603228500001</v>
+        <v>-9.9834162520700001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -14415,7 +14425,7 @@
         <v>42837</v>
       </c>
       <c r="B43">
-        <v>-257.47243682200002</v>
+        <v>-0.19071310116099999</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -14423,7 +14433,7 @@
         <v>42838</v>
       </c>
       <c r="B44">
-        <v>-141.59018461100001</v>
+        <v>-0.11304588170300001</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -14431,7 +14441,7 @@
         <v>42839</v>
       </c>
       <c r="B45">
-        <v>0.22804660383399999</v>
+        <v>1.1055831951399999E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -14439,7 +14449,7 @@
         <v>42840</v>
       </c>
       <c r="B46">
-        <v>-0.86443658493200004</v>
+        <v>-6.63349917081E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -14447,7 +14457,7 @@
         <v>42841</v>
       </c>
       <c r="B47">
-        <v>-2.6797534132899998</v>
+        <v>-2.3217247097800001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -14455,7 +14465,7 @@
         <v>42842</v>
       </c>
       <c r="B48">
-        <v>-35.7588600634</v>
+        <v>-6.57822001106E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -14463,7 +14473,7 @@
         <v>42843</v>
       </c>
       <c r="B49">
-        <v>-31.644141919100001</v>
+        <v>-7.3521282476499999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -14471,7 +14481,7 @@
         <v>42844</v>
       </c>
       <c r="B50">
-        <v>-40.660627136400002</v>
+        <v>-9.01050304035E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -14479,7 +14489,7 @@
         <v>42845</v>
       </c>
       <c r="B51">
-        <v>-329.18181488900001</v>
+        <v>-0.36777224986200002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -14487,7 +14497,7 @@
         <v>42846</v>
       </c>
       <c r="B52">
-        <v>-82.629640789600003</v>
+        <v>-0.13515754560500001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -14495,7 +14505,7 @@
         <v>42847</v>
       </c>
       <c r="B53">
-        <v>0.470912120554</v>
+        <v>6.08070757324E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -14511,7 +14521,7 @@
         <v>42849</v>
       </c>
       <c r="B55">
-        <v>-36.064294323399999</v>
+        <v>-8.1260364842500002E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -14519,7 +14529,7 @@
         <v>42850</v>
       </c>
       <c r="B56">
-        <v>-40.059637891599998</v>
+        <v>-6.8269762299599995E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -14527,7 +14537,7 @@
         <v>42851</v>
       </c>
       <c r="B57">
-        <v>-36.669564587399996</v>
+        <v>-8.4466556108300006E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -14535,7 +14545,7 @@
         <v>42852</v>
       </c>
       <c r="B58">
-        <v>-17.2105207695</v>
+        <v>-4.0906578220000003E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -14543,7 +14553,7 @@
         <v>42853</v>
       </c>
       <c r="B59">
-        <v>-59.770603228500001</v>
+        <v>-9.9834162520700001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -14551,7 +14561,7 @@
         <v>42854</v>
       </c>
       <c r="B60">
-        <v>-7.3337153319799997</v>
+        <v>-3.7589828634600003E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -14559,7 +14569,7 @@
         <v>42855</v>
       </c>
       <c r="B61">
-        <v>-2.9160327465</v>
+        <v>-1.54781647319E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -14567,7 +14577,7 @@
         <v>42856</v>
       </c>
       <c r="B62">
-        <v>-6.6685107980499994E-2</v>
+        <v>-2.4875621890500001E-3</v>
       </c>
     </row>
   </sheetData>
